--- a/monthly_financial_summary.xlsx
+++ b/monthly_financial_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>2024-05</t>
   </si>
@@ -46,6 +46,15 @@
     <t>2025-02</t>
   </si>
   <si>
+    <t>2025-03</t>
+  </si>
+  <si>
+    <t>2025-04</t>
+  </si>
+  <si>
+    <t>2025-05</t>
+  </si>
+  <si>
     <t>בטוח לאומי חד</t>
   </si>
   <si>
@@ -64,6 +73,9 @@
     <t>הפק.שיק בסלולר</t>
   </si>
   <si>
+    <t>הפקדת שיק חוזר</t>
+  </si>
+  <si>
     <t>זכוי מת. חסכון</t>
   </si>
   <si>
@@ -82,15 +94,24 @@
     <t>סה"כ הכנסות</t>
   </si>
   <si>
+    <t>סה"כ הכנסות ללא חיסכונות</t>
+  </si>
+  <si>
     <t>בזק-הוראות קבע</t>
   </si>
   <si>
     <t>הו"ק פקדון</t>
   </si>
   <si>
+    <t>החזרת שיק (תאריך ערך: 05/03)</t>
+  </si>
+  <si>
     <t>העב' לאחר-נייד</t>
   </si>
   <si>
+    <t>העברה לבנק אחר</t>
+  </si>
+  <si>
     <t>הפקדה לחסכון</t>
   </si>
   <si>
@@ -106,9 +127,15 @@
     <t>מי נתניה (2003</t>
   </si>
   <si>
+    <t>מסטרקרד</t>
+  </si>
+  <si>
     <t>משיכה מבנקט</t>
   </si>
   <si>
+    <t>ני"ע-קניה</t>
+  </si>
+  <si>
     <t>סקיולייף-נטלי</t>
   </si>
   <si>
@@ -127,7 +154,13 @@
     <t>סה"כ הוצאות</t>
   </si>
   <si>
+    <t>סה"כ הוצאות ללא חיסכונות</t>
+  </si>
+  <si>
     <t>הפרש חודשי</t>
+  </si>
+  <si>
+    <t>הפרש חודשי ללא חיסכונות</t>
   </si>
 </sst>
 </file>
@@ -485,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,10 +555,19 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>254</v>
@@ -555,12 +597,21 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>2566</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>11690</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -590,12 +641,21 @@
         <v>2249</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>2287</v>
+      </c>
+      <c r="L3">
+        <v>2287</v>
+      </c>
+      <c r="M3">
+        <v>2413</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>6112</v>
@@ -625,12 +685,21 @@
         <v>6417</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>6417</v>
+      </c>
+      <c r="L4">
+        <v>6417</v>
+      </c>
+      <c r="M4">
+        <v>2385</v>
+      </c>
+      <c r="N4">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>7033.45</v>
@@ -660,12 +729,21 @@
         <v>12860.88</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>7587.88</v>
+      </c>
+      <c r="L5">
+        <v>7587.88</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -697,10 +775,19 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -732,10 +819,19 @@
       <c r="K7">
         <v>3200</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>3200</v>
+      </c>
+      <c r="M7">
+        <v>3200</v>
+      </c>
+      <c r="N7">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -756,786 +852,1345 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>3200</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>45391.89</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>261687.71</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1080</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>460</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>237.62</v>
+      </c>
+      <c r="G11">
+        <v>439.99</v>
+      </c>
+      <c r="H11">
+        <v>245.62</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>2062.53</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>225.79</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>160000</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>50000</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>3839.89</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1279.5</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>13399.45</v>
+      </c>
+      <c r="C14">
+        <v>15560.09</v>
+      </c>
+      <c r="D14">
+        <v>14857.78</v>
+      </c>
+      <c r="E14">
+        <v>15415.78</v>
+      </c>
+      <c r="F14">
+        <v>180104.29</v>
+      </c>
+      <c r="G14">
+        <v>17166.77</v>
+      </c>
+      <c r="H14">
+        <v>64864.29</v>
+      </c>
+      <c r="I14">
+        <v>23466.78</v>
+      </c>
+      <c r="J14">
+        <v>24726.88</v>
+      </c>
+      <c r="K14">
+        <v>285808.12</v>
+      </c>
+      <c r="L14">
+        <v>73971.38</v>
+      </c>
+      <c r="M14">
+        <v>20373.79</v>
+      </c>
+      <c r="N14">
+        <v>7007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>13399.45</v>
+      </c>
+      <c r="C15">
+        <v>15560.09</v>
+      </c>
+      <c r="D15">
+        <v>14857.78</v>
+      </c>
+      <c r="E15">
+        <v>15415.78</v>
+      </c>
+      <c r="F15">
+        <v>20104.29000000001</v>
+      </c>
+      <c r="G15">
+        <v>17166.77</v>
+      </c>
+      <c r="H15">
+        <v>19472.4</v>
+      </c>
+      <c r="I15">
+        <v>23466.78</v>
+      </c>
+      <c r="J15">
+        <v>24726.88</v>
+      </c>
+      <c r="K15">
+        <v>24120.41</v>
+      </c>
+      <c r="L15">
+        <v>23971.38</v>
+      </c>
+      <c r="M15">
+        <v>20373.79</v>
+      </c>
+      <c r="N15">
+        <v>7007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>24.47</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>24.71</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>24.54</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>24.43</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>48.93</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>49.16</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1100</v>
+      </c>
+      <c r="H17">
+        <v>1100</v>
+      </c>
+      <c r="I17">
+        <v>1100</v>
+      </c>
+      <c r="J17">
+        <v>1100</v>
+      </c>
+      <c r="K17">
+        <v>1100</v>
+      </c>
+      <c r="L17">
+        <v>1100</v>
+      </c>
+      <c r="M17">
+        <v>1100</v>
+      </c>
+      <c r="N17">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1080</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>237.62</v>
-      </c>
-      <c r="G10">
-        <v>439.99</v>
-      </c>
-      <c r="H10">
-        <v>245.62</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>2062.53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>160000</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>3839.89</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>13399.45</v>
-      </c>
-      <c r="C13">
-        <v>15560.09</v>
-      </c>
-      <c r="D13">
-        <v>14857.78</v>
-      </c>
-      <c r="E13">
-        <v>15415.78</v>
-      </c>
-      <c r="F13">
-        <v>180104.29</v>
-      </c>
-      <c r="G13">
-        <v>17166.77</v>
-      </c>
-      <c r="H13">
-        <v>64864.29</v>
-      </c>
-      <c r="I13">
-        <v>23466.78</v>
-      </c>
-      <c r="J13">
-        <v>24726.88</v>
-      </c>
-      <c r="K13">
-        <v>266988.24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>24.47</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>24.71</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>24.54</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>24.43</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1100</v>
-      </c>
-      <c r="H15">
-        <v>1100</v>
-      </c>
-      <c r="I15">
-        <v>1100</v>
-      </c>
-      <c r="J15">
-        <v>1100</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>206.66</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>209.9</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>3200</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>2475</v>
       </c>
-      <c r="D17">
+      <c r="D20">
         <v>2439</v>
       </c>
-      <c r="E17">
+      <c r="E20">
         <v>1698</v>
       </c>
-      <c r="F17">
+      <c r="F20">
         <v>63101</v>
       </c>
-      <c r="G17">
+      <c r="G20">
         <v>4314</v>
       </c>
-      <c r="H17">
+      <c r="H20">
         <v>4352</v>
       </c>
-      <c r="I17">
+      <c r="I20">
         <v>5576</v>
       </c>
-      <c r="J17">
+      <c r="J20">
         <v>3911</v>
       </c>
-      <c r="K17">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="s">
+      <c r="K20">
+        <v>4370</v>
+      </c>
+      <c r="L20">
+        <v>42165</v>
+      </c>
+      <c r="M20">
+        <v>7252</v>
+      </c>
+      <c r="N20">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>10500</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>130000</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>60000</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1200</v>
+      </c>
+      <c r="G23">
+        <v>1000</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>181.19</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>248.92</v>
+      </c>
+      <c r="F24">
+        <v>458.89</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>212.33</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>534.34</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>835.01</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>4201.39</v>
+      </c>
+      <c r="D25">
+        <v>4637.9</v>
+      </c>
+      <c r="E25">
+        <v>3121.94</v>
+      </c>
+      <c r="F25">
+        <v>5464.23</v>
+      </c>
+      <c r="G25">
+        <v>4565.59</v>
+      </c>
+      <c r="H25">
+        <v>3578.9</v>
+      </c>
+      <c r="I25">
+        <v>5102.22</v>
+      </c>
+      <c r="J25">
+        <v>4892.72</v>
+      </c>
+      <c r="K25">
+        <v>5073.62</v>
+      </c>
+      <c r="L25">
+        <v>4093.57</v>
+      </c>
+      <c r="M25">
+        <v>6955.73</v>
+      </c>
+      <c r="N25">
+        <v>195.31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>97.13</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>151.94</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>470.3</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>267.38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>6300</v>
+      </c>
+      <c r="D28">
+        <v>2500</v>
+      </c>
+      <c r="E28">
+        <v>3000</v>
+      </c>
+      <c r="F28">
+        <v>3000</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1500</v>
+      </c>
+      <c r="I28">
+        <v>1500</v>
+      </c>
+      <c r="J28">
+        <v>1500</v>
+      </c>
+      <c r="K28">
+        <v>1500</v>
+      </c>
+      <c r="L28">
+        <v>11500</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>272049.93</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
         <v>25</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>130000</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>60000</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1200</v>
-      </c>
-      <c r="G19">
-        <v>1000</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>181.19</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>248.92</v>
-      </c>
-      <c r="F20">
-        <v>458.89</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>212.33</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>4201.39</v>
-      </c>
-      <c r="D21">
-        <v>4637.9</v>
-      </c>
-      <c r="E21">
-        <v>3121.94</v>
-      </c>
-      <c r="F21">
-        <v>5464.23</v>
-      </c>
-      <c r="G21">
-        <v>4565.59</v>
-      </c>
-      <c r="H21">
-        <v>3578.9</v>
-      </c>
-      <c r="I21">
-        <v>5102.22</v>
-      </c>
-      <c r="J21">
-        <v>4892.72</v>
-      </c>
-      <c r="K21">
-        <v>5073.62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22">
-        <v>97.13</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>151.94</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>470.3</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>6300</v>
-      </c>
-      <c r="D23">
-        <v>2500</v>
-      </c>
-      <c r="E23">
-        <v>3000</v>
-      </c>
-      <c r="F23">
-        <v>3000</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>1500</v>
-      </c>
-      <c r="I23">
-        <v>1500</v>
-      </c>
-      <c r="J23">
-        <v>1500</v>
-      </c>
-      <c r="K23">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24">
+      <c r="C30">
         <v>25</v>
       </c>
-      <c r="C24">
+      <c r="D30">
         <v>25</v>
       </c>
-      <c r="D24">
+      <c r="E30">
         <v>25</v>
       </c>
-      <c r="E24">
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
         <v>25</v>
       </c>
-      <c r="F24">
-        <v>50</v>
-      </c>
-      <c r="G24">
+      <c r="H30">
         <v>25</v>
       </c>
-      <c r="H24">
+      <c r="I30">
         <v>25</v>
       </c>
-      <c r="I24">
+      <c r="J30">
         <v>25</v>
       </c>
-      <c r="J24">
+      <c r="K30">
         <v>25</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
+      <c r="L30">
+        <v>25</v>
+      </c>
+      <c r="M30">
+        <v>25</v>
+      </c>
+      <c r="N30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <v>10</v>
       </c>
-      <c r="D25">
+      <c r="D31">
         <v>10</v>
       </c>
-      <c r="E25">
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="F25">
+      <c r="F31">
         <v>10</v>
       </c>
-      <c r="G25">
+      <c r="G31">
         <v>10</v>
       </c>
-      <c r="H25">
+      <c r="H31">
         <v>10</v>
       </c>
-      <c r="I25">
+      <c r="I31">
         <v>10</v>
       </c>
-      <c r="J25">
+      <c r="J31">
         <v>10</v>
       </c>
-      <c r="K25">
+      <c r="K31">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="N31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <v>1.75</v>
       </c>
-      <c r="D26">
+      <c r="D32">
         <v>3.5</v>
       </c>
-      <c r="E26">
+      <c r="E32">
         <v>3.5</v>
       </c>
-      <c r="F26">
+      <c r="F32">
         <v>3.5</v>
       </c>
-      <c r="G26">
+      <c r="G32">
         <v>8.75</v>
       </c>
-      <c r="H26">
+      <c r="H32">
         <v>3.5</v>
       </c>
-      <c r="I26">
+      <c r="I32">
         <v>8.75</v>
       </c>
-      <c r="J26">
+      <c r="J32">
         <v>8.75</v>
       </c>
-      <c r="K26">
+      <c r="K32">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
+      <c r="L32">
+        <v>12.25</v>
+      </c>
+      <c r="M32">
+        <v>12.25</v>
+      </c>
+      <c r="N32">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <v>9</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <v>5300</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>5300</v>
       </c>
-      <c r="I28">
+      <c r="I34">
         <v>5300</v>
       </c>
-      <c r="J28">
+      <c r="J34">
         <v>5300</v>
       </c>
-      <c r="K28">
+      <c r="K34">
         <v>5300</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29">
+      <c r="L34">
+        <v>5300</v>
+      </c>
+      <c r="M34">
+        <v>5300</v>
+      </c>
+      <c r="N34">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35">
         <v>122.13</v>
       </c>
-      <c r="C29">
+      <c r="C35">
         <v>13425.46</v>
       </c>
-      <c r="D29">
+      <c r="D35">
         <v>9977.239999999998</v>
       </c>
-      <c r="E29">
+      <c r="E35">
         <v>8132.07</v>
       </c>
-      <c r="F29">
+      <c r="F35">
         <v>209066.92</v>
       </c>
-      <c r="G29">
+      <c r="G35">
         <v>11047.88</v>
       </c>
-      <c r="H29">
+      <c r="H35">
         <v>76081.73</v>
       </c>
-      <c r="I29">
+      <c r="I35">
         <v>18646.4</v>
       </c>
-      <c r="J29">
+      <c r="J35">
         <v>16747.47</v>
       </c>
-      <c r="K29">
-        <v>12268.37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30">
+      <c r="K35">
+        <v>290013.57</v>
+      </c>
+      <c r="L35">
+        <v>67405.82000000001</v>
+      </c>
+      <c r="M35">
+        <v>32039.15</v>
+      </c>
+      <c r="N35">
+        <v>15425.44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36">
+        <v>122.13</v>
+      </c>
+      <c r="C36">
+        <v>13425.46</v>
+      </c>
+      <c r="D36">
+        <v>9977.239999999998</v>
+      </c>
+      <c r="E36">
+        <v>8132.07</v>
+      </c>
+      <c r="F36">
+        <v>79066.92000000001</v>
+      </c>
+      <c r="G36">
+        <v>11047.88</v>
+      </c>
+      <c r="H36">
+        <v>16081.73</v>
+      </c>
+      <c r="I36">
+        <v>18646.4</v>
+      </c>
+      <c r="J36">
+        <v>16747.47</v>
+      </c>
+      <c r="K36">
+        <v>17963.64000000001</v>
+      </c>
+      <c r="L36">
+        <v>67405.82000000001</v>
+      </c>
+      <c r="M36">
+        <v>32039.15</v>
+      </c>
+      <c r="N36">
+        <v>15425.44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37">
         <v>13277.32</v>
       </c>
-      <c r="C30">
+      <c r="C37">
         <v>2134.629999999999</v>
       </c>
-      <c r="D30">
+      <c r="D37">
         <v>4880.540000000001</v>
       </c>
-      <c r="E30">
+      <c r="E37">
         <v>7283.709999999999</v>
       </c>
-      <c r="F30">
+      <c r="F37">
         <v>-28962.63</v>
       </c>
-      <c r="G30">
+      <c r="G37">
         <v>6118.889999999999</v>
       </c>
-      <c r="H30">
+      <c r="H37">
         <v>-11217.44</v>
       </c>
-      <c r="I30">
+      <c r="I37">
         <v>4820.379999999997</v>
       </c>
-      <c r="J30">
+      <c r="J37">
         <v>7979.409999999996</v>
       </c>
-      <c r="K30">
-        <v>254719.87</v>
+      <c r="K37">
+        <v>-4205.450000000012</v>
+      </c>
+      <c r="L37">
+        <v>6565.559999999998</v>
+      </c>
+      <c r="M37">
+        <v>-11665.36</v>
+      </c>
+      <c r="N37">
+        <v>-8418.439999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <v>13277.32</v>
+      </c>
+      <c r="C38">
+        <v>2134.629999999999</v>
+      </c>
+      <c r="D38">
+        <v>4880.540000000001</v>
+      </c>
+      <c r="E38">
+        <v>7283.709999999999</v>
+      </c>
+      <c r="F38">
+        <v>-58962.63</v>
+      </c>
+      <c r="G38">
+        <v>6118.889999999999</v>
+      </c>
+      <c r="H38">
+        <v>3390.670000000006</v>
+      </c>
+      <c r="I38">
+        <v>4820.379999999997</v>
+      </c>
+      <c r="J38">
+        <v>7979.409999999996</v>
+      </c>
+      <c r="K38">
+        <v>6156.76999999999</v>
+      </c>
+      <c r="L38">
+        <v>-43434.44</v>
+      </c>
+      <c r="M38">
+        <v>-11665.36</v>
+      </c>
+      <c r="N38">
+        <v>-8418.439999999999</v>
       </c>
     </row>
   </sheetData>
